--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.548</v>
+        <v>16.493</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.47</v>
+        <v>16.363</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.172</v>
+        <v>5.715000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.232</v>
+        <v>-22.322</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.988</v>
+        <v>-21.56499999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.794</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.606</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.054</v>
+        <v>5.802</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.542</v>
+        <v>16.945</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>5.364</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.324</v>
+        <v>-21.407</v>
       </c>
       <c r="B18" t="n">
-        <v>7.446000000000001</v>
+        <v>6.206</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.494</v>
+        <v>16.236</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.318</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="20">
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>5.848000000000001</v>
+        <v>6.005999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.412</v>
+        <v>16.634</v>
       </c>
     </row>
     <row r="22">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.9</v>
+        <v>-21.813</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.274</v>
+        <v>16.392</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.562</v>
+        <v>5.881</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.686000000000001</v>
+        <v>5.495</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.714</v>
+        <v>5.578</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.87</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="32">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>7.146000000000001</v>
+        <v>7.303999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.774</v>
+        <v>-20.36</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.266</v>
+        <v>16.409</v>
       </c>
     </row>
     <row r="39">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.382</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="43">
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.628</v>
+        <v>4.992</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.99</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.474</v>
+        <v>16.369</v>
       </c>
     </row>
     <row r="48">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.958</v>
+        <v>4.675</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.864</v>
+        <v>4.955</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.576</v>
+        <v>-21.871</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>15.844</v>
+        <v>16.199</v>
       </c>
     </row>
     <row r="57">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.508</v>
+        <v>16.567</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.526</v>
+        <v>17.301</v>
       </c>
     </row>
     <row r="66">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.586</v>
+        <v>-21.473</v>
       </c>
       <c r="B68" t="n">
-        <v>4.665999999999999</v>
+        <v>5.512</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.512</v>
+        <v>16.466</v>
       </c>
     </row>
     <row r="74">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>5.708</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.652</v>
+        <v>-21.065</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20</v>
+        <v>-20.694</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.642</v>
+        <v>-21.57</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.978</v>
+        <v>-20.65</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.026</v>
+        <v>-21.804</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-22.077</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.02</v>
+        <v>-21.773</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.122</v>
+        <v>4.636</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.958</v>
+        <v>4.858</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.75</v>
+        <v>16.363</v>
       </c>
     </row>
     <row r="91">
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>6.795999999999999</v>
+        <v>5.753</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.368</v>
+        <v>17.993</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.396</v>
+        <v>17.828</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.63</v>
+        <v>17.237</v>
       </c>
     </row>
     <row r="96">
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>6.016</v>
+        <v>6.427000000000001</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.138</v>
+        <v>5.574</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.318</v>
+        <v>-21.538</v>
       </c>
       <c r="B101" t="n">
-        <v>6.859999999999999</v>
+        <v>6.071</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
@@ -2157,15 +2157,15 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.918</v>
+        <v>17.107</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.894</v>
+        <v>-21.159</v>
       </c>
       <c r="B102" t="n">
-        <v>5.994000000000002</v>
+        <v>6.237</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
